--- a/安卓0604 Debug.xlsx
+++ b/安卓0604 Debug.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/HehuoProject/LuxxApp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A25049-880E-0747-8556-D488D71E6AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="18320" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Debug0603" sheetId="1" r:id="rId1"/>
@@ -18,253 +12,26 @@
     <sheet name="ID Code" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
-  <si>
-    <t>4.设备列表图标不对 应是蜡烛光图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  绑定过程中在 Config及Done待太久了 请优化一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   有多个设备时 绑定第一个设备后 需自动跳回绑定页面继续点击新设备Mac地址 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>0531 安卓Debug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 版本号请加上序号免得搞乱了  例1.30.1 1.30.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     另 调RGB一直亮蜡烛灯 目前请不用理会它 这是固件的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 有关黄灯及蜡烛灯cmd 目前固件是正确的 请参照Demo code是如何发指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.当设备绑定后要亮黄灯 目前亮的是绿灯 （固件问题）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新旧设备同时操作问题讨论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 设备明称（ID Code)不对, 新设备应显示Luxxlight 不是Mac地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App基本架构</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LuxxLight </t>
-    </r>
+  </si>
+  <si>
+    <t>1.当设备联上手机蓝牙后 左上角的圈确定连接手机蓝牙后 要消失 不要继续转 此点未改到</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
-      <t>(CSR)</t>
-    </r>
-  </si>
-  <si>
-    <t>LuxxLight 003</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LuxxMusic </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(CSR)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CSR</t>
-    </r>
-  </si>
-  <si>
-    <t>LuxxMusic 003</t>
-  </si>
-  <si>
-    <t>ID Code003</t>
-  </si>
-  <si>
-    <t>GROUP Light  (组灯)</t>
-  </si>
-  <si>
-    <t>CSR</t>
-  </si>
-  <si>
-    <t>LuxxLight</t>
-  </si>
-  <si>
-    <t>CSR SDK</t>
-  </si>
-  <si>
-    <t>设定账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 组网</t>
-  </si>
-  <si>
-    <t>(Candlelight) 005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CandleLight 005 </t>
-  </si>
-  <si>
-    <t>APP开机</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 以蜡烛光图标区分</t>
-  </si>
-  <si>
-    <t>以蜡烛光图标区分</t>
-  </si>
-  <si>
-    <t>Telink SDK</t>
-  </si>
-  <si>
-    <t>Telink</t>
-  </si>
-  <si>
-    <r>
-      <t>LuxxLight</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(Telink)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LuxxMusic</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(Telink)</t>
-    </r>
-  </si>
-  <si>
-    <t>组灯时是否区分？</t>
-  </si>
-  <si>
-    <t>简易安装</t>
-  </si>
-  <si>
-    <t>自动安装</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Easy Installation</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>不用看到绑定过程</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定后自动生成组灯</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>不管有多少灯</t>
-  </si>
-  <si>
-    <t>详见附件App基本架构图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前新设备显示的是Luxxmusic 目前我给你的新设备应显示Luxxlight而不是Luxxmusic 上一版本显示页面是对的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">详见录相A </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.当同时绑定两个灯（新设备）后 设备列表 只会载入一个灯 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   需清掉后台 或按手机回车键 再回设备列表才会载入另一个灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见录相B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   然后继续绑定 以此类推 影片中是旧设备大号的是带喇叭Luxxmusic 小号的是Luxxlight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可见 新旧设备ID code应未分清楚, 第一个及第二个是新设备没分清楚（应显示Luxxlight 但我想ID Code需与旧的区分 固可能需自定义）） 第三及第四个是旧设备 分的很清楚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.当设备联上手机蓝牙后 左上角的圈确定连接手机蓝牙后 要消失 不要继续转 此点未改到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见录相C及D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">此版本有时会找不到新设备 </t>
     </r>
     <r>
@@ -273,9 +40,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="1"/>
         <charset val="136"/>
-        <scheme val="minor"/>
       </rPr>
       <t>需清掉后台</t>
     </r>
@@ -285,9 +50,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="136"/>
-        <scheme val="minor"/>
       </rPr>
       <t>或复位后</t>
     </r>
@@ -296,244 +59,563 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="136"/>
-        <scheme val="minor"/>
       </rPr>
       <t>才能找到 不知是否与转圈有关</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见录相C及D</t>
+  </si>
+  <si>
+    <t>设备列表中解绑新设备，会出现无法搜索解绑的设备，进行绑定。</t>
+  </si>
+  <si>
+    <t>未发现。</t>
+  </si>
+  <si>
+    <t>2.当设备绑定后要亮黄灯 目前亮的是绿灯 （固件问题）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.当同时绑定两个灯（新设备）后 设备列表 只会载入一个灯 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   需清掉后台 或按手机回车键 再回设备列表才会载入另一个灯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">详见录相A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   有多个设备时 绑定第一个设备后 需自动跳回绑定页面继续点击新设备Mac地址 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   然后继续绑定 以此类推 影片中是旧设备大号的是带喇叭Luxxmusic 小号的是Luxxlight</t>
+  </si>
+  <si>
+    <t>详见录相B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  绑定过程中在 Config及Done待太久了 请优化一下</t>
+  </si>
+  <si>
+    <t>///--对比下原厂demo</t>
+  </si>
+  <si>
+    <t>4.设备列表图标不对 应是蜡烛光图标</t>
+  </si>
+  <si>
+    <t>5. 有关黄灯及蜡烛灯cmd 目前固件是正确的 请参照Demo code是如何发指令</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     另 调RGB一直亮蜡烛灯 目前请不用理会它 这是固件的问题</t>
+  </si>
+  <si>
+    <t>6. 版本号请加上序号免得搞乱了  例1.30.1 1.30.2</t>
+  </si>
+  <si>
+    <t>7. 设备明称（ID Code)不对, 新设备应显示Luxxlight 不是Mac地址</t>
+  </si>
+  <si>
+    <t>目前新设备显示的是Luxxmusic 目前我给你的新设备应显示Luxxlight而不是Luxxmusic 上一版本显示页面是对的</t>
+  </si>
+  <si>
+    <t>可见 新旧设备ID code应未分清楚, 第一个及第二个是新设备没分清楚（应显示Luxxlight 但我想ID Code需与旧的区分 固可能需自定义）） 第三及第四个是旧设备 分的很清楚</t>
+  </si>
+  <si>
+    <t>详见附件App基本架构图</t>
+  </si>
+  <si>
+    <t>新旧设备同时操作问题讨论</t>
+  </si>
+  <si>
+    <t xml:space="preserve">根据以上诸点得知 </t>
   </si>
   <si>
     <t>我认为首先最重要是需将新旧设备ID,图标彻底分清楚, 然后再来处理bugs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目前组网基本问题不大 只要将新旧ID 及后台问题搞清楚如何处理 那其它就容易搞定了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">根据以上诸点得知 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尤其是組灯 否则我想会很容易乱套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App基本架构</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">LuxxLight </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(CSR)</t>
+    </r>
+  </si>
+  <si>
+    <t>LuxxLight 003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">LuxxMusic </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(CSR)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CSR</t>
+    </r>
+  </si>
+  <si>
+    <t>LuxxMusic 003</t>
+  </si>
+  <si>
+    <t>ID Code003</t>
+  </si>
+  <si>
+    <t>GROUP Light  (组灯)</t>
+  </si>
+  <si>
+    <t>CSR</t>
+  </si>
+  <si>
+    <t>LuxxLight</t>
+  </si>
+  <si>
+    <t>CSR SDK</t>
+  </si>
+  <si>
+    <t>设定账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 组网</t>
+  </si>
+  <si>
+    <t>(Candlelight) 005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CandleLight 005 </t>
+  </si>
+  <si>
+    <t>APP开机</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 以蜡烛光图标区分</t>
+  </si>
+  <si>
+    <t>以蜡烛光图标区分</t>
+  </si>
+  <si>
+    <t>Telink SDK</t>
+  </si>
+  <si>
+    <t>Telink</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LuxxLight</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Telink)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LuxxMusic</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Telink)</t>
+    </r>
+  </si>
+  <si>
+    <t>组灯时是否区分？</t>
+  </si>
+  <si>
+    <t>简易安装</t>
+  </si>
+  <si>
+    <t>自动安装</t>
+  </si>
+  <si>
+    <t>Easy Installation</t>
+  </si>
+  <si>
+    <t>不用看到绑定过程</t>
+  </si>
+  <si>
+    <t>绑定后自动生成组灯</t>
+  </si>
+  <si>
+    <t>不管有多少灯</t>
+  </si>
+  <si>
+    <t>旧 SDK ID Code 区分</t>
+  </si>
+  <si>
+    <t>ID Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">项目名称 </t>
+  </si>
+  <si>
+    <t>LuxxMusic</t>
+  </si>
+  <si>
+    <t>Luxxlight</t>
+  </si>
+  <si>
+    <t>新 SDK ID Code 区分</t>
   </si>
   <si>
     <t>自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LuxxLight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LuxxLight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Luxxlight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LuxxMusic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧 SDK ID Code 区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新 SDK ID Code 区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">项目名称 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备列表中解绑新设备，会出现无法搜索解绑的设备，进行绑定。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>///--对比下原厂demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排查--sdk问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="000"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,6 +625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,12 +648,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -575,23 +843,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -599,76 +882,360 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -677,154 +1244,138 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -840,27 +1391,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1" descr="54c75801d0a46655c172b58adc60eb6.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="圖片 1" descr="54c75801d0a46655c172b58adc60eb6.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1133475" y="790576"/>
-          <a:ext cx="1371600" cy="2228850"/>
+          <a:off x="1075690" y="1522095"/>
+          <a:ext cx="1256030" cy="2382520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -884,27 +1429,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2" descr="4e1a47f75974fdedc9626ff06129940.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="圖片 2" descr="4e1a47f75974fdedc9626ff06129940.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="790575" y="4924425"/>
-          <a:ext cx="1066800" cy="1590675"/>
+          <a:off x="732790" y="8394065"/>
+          <a:ext cx="1009015" cy="1688465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -921,34 +1460,28 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>625475</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3" descr="e8eb55cf5a2852c350d7fc2c5a04834.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="圖片 3" descr="e8eb55cf5a2852c350d7fc2c5a04834.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828925" y="809625"/>
-          <a:ext cx="1371600" cy="2114550"/>
+          <a:off x="2597785" y="1541145"/>
+          <a:ext cx="1256030" cy="2254250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -972,27 +1505,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4" descr="eb48996fc61be41e9acf0f779eb6c60.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="圖片 4" descr="eb48996fc61be41e9acf0f779eb6c60.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="4562476"/>
-          <a:ext cx="1333500" cy="1943100"/>
+          <a:off x="780415" y="5992495"/>
+          <a:ext cx="1217930" cy="2068830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1016,27 +1543,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="9871870"/>
-          <a:ext cx="1514475" cy="2439987"/>
+          <a:off x="818515" y="12321540"/>
+          <a:ext cx="1398905" cy="2607310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1056,39 +1577,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>628015</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="圖片 7" descr="2b7545f5b797bf5987b45483f9078b4.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="圖片 7" descr="2b7545f5b797bf5987b45483f9078b4.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3390900" y="10934700"/>
-          <a:ext cx="1466850" cy="2457450"/>
+          <a:off x="3140075" y="12336780"/>
+          <a:ext cx="1313180" cy="2625090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1101,7 +1616,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1115,21 +1630,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="右箭头 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="右箭头 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="1657985"/>
-          <a:ext cx="352425" cy="75565"/>
+          <a:off x="1912620" y="1711325"/>
+          <a:ext cx="438150" cy="75565"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1172,21 +1681,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="右箭头 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="右箭头 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2905125" y="1438910"/>
-          <a:ext cx="390525" cy="75565"/>
+          <a:off x="3216275" y="1497330"/>
+          <a:ext cx="438150" cy="75565"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1229,21 +1732,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="右箭头 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="右箭头 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5857875" y="991235"/>
-          <a:ext cx="295275" cy="75565"/>
+          <a:off x="5671185" y="1059815"/>
+          <a:ext cx="409575" cy="75565"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1286,21 +1783,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="右箭头 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="右箭头 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5838825" y="2315210"/>
-          <a:ext cx="314325" cy="75565"/>
+          <a:off x="5652135" y="2406650"/>
+          <a:ext cx="438150" cy="75565"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1343,21 +1834,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="右箭头 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="右箭头 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7753350" y="991235"/>
-          <a:ext cx="238125" cy="75565"/>
+          <a:off x="7051040" y="1059815"/>
+          <a:ext cx="361950" cy="75565"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1400,21 +1885,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="右箭头 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="右箭头 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7696200" y="2391410"/>
-          <a:ext cx="295275" cy="75565"/>
+          <a:off x="6993890" y="2482850"/>
+          <a:ext cx="361950" cy="75565"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1457,21 +1936,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="右箭头 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="右箭头 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619125" y="1905635"/>
-          <a:ext cx="342900" cy="75565"/>
+          <a:off x="656590" y="1953895"/>
+          <a:ext cx="438150" cy="75565"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1514,21 +1987,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="右箭头 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="右箭头 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3905250" y="1314450"/>
-          <a:ext cx="333375" cy="76200"/>
+          <a:off x="4424680" y="1377950"/>
+          <a:ext cx="438150" cy="71120"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1571,21 +2038,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="右箭头 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="右箭头 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2924175" y="2096135"/>
-          <a:ext cx="371475" cy="75565"/>
+          <a:off x="3235325" y="2139315"/>
+          <a:ext cx="438150" cy="75565"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1628,21 +2089,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="右箭头 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="右箭头 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3905250" y="2228850"/>
-          <a:ext cx="333375" cy="76200"/>
+          <a:off x="4424680" y="2272030"/>
+          <a:ext cx="438150" cy="124460"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1685,21 +2140,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="右箭头 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="右箭头 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="600075" y="1448435"/>
-          <a:ext cx="361950" cy="75565"/>
+          <a:off x="637540" y="1506855"/>
+          <a:ext cx="438150" cy="75565"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1742,21 +2191,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="右箭头 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="右箭头 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3914775" y="2781300"/>
-          <a:ext cx="323850" cy="76200"/>
+          <a:off x="4434205" y="2862580"/>
+          <a:ext cx="438150" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1799,21 +2242,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="右箭头 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="右箭头 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5848350" y="2867660"/>
-          <a:ext cx="304800" cy="75565"/>
+          <a:off x="5661660" y="2948940"/>
+          <a:ext cx="438150" cy="75565"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1856,21 +2293,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="右箭头 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="右箭头 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7667625" y="3048635"/>
-          <a:ext cx="323850" cy="75565"/>
+          <a:off x="6965315" y="3124835"/>
+          <a:ext cx="361950" cy="75565"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1904,7 +2335,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1920,27 +2351,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1" descr="LuxxMusic.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="圖片 1" descr="LuxxMusic.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="457200"/>
-          <a:ext cx="2057400" cy="2743200"/>
+          <a:off x="0" y="812800"/>
+          <a:ext cx="1884045" cy="2924810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1964,27 +2389,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4" descr="DLUXX Device pagev1.1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="圖片 4" descr="DLUXX Device pagev1.1.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2771775" y="457200"/>
-          <a:ext cx="1428572" cy="2542857"/>
+          <a:off x="2540635" y="812800"/>
+          <a:ext cx="1312545" cy="2710180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2008,27 +2427,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="圖片 5" descr="Luxxlight.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="圖片 5" descr="Luxxlight.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3848100"/>
-          <a:ext cx="2057400" cy="2743200"/>
+          <a:off x="0" y="4424680"/>
+          <a:ext cx="1884045" cy="2924810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2052,28 +2465,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="3848101"/>
-          <a:ext cx="1600200" cy="2714624"/>
+          <a:off x="2512060" y="4424680"/>
+          <a:ext cx="1484630" cy="2869565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2105,27 +2512,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="圖片 7" descr="7883b0d66466604b46e84ac52f484bb.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="圖片 7" descr="7883b0d66466604b46e84ac52f484bb.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6991350"/>
-          <a:ext cx="2057400" cy="2743200"/>
+          <a:off x="0" y="8036560"/>
+          <a:ext cx="1884045" cy="2924810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2137,7 +2538,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
+      <xdr:colOff>628015</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
@@ -2149,27 +2550,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="圖片 9" descr="32458c394bfd2799d2f324afac564f1.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="圖片 9" descr="32458c394bfd2799d2f324afac564f1.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743199" y="6991351"/>
-          <a:ext cx="1609725" cy="2752724"/>
+          <a:off x="2512060" y="8036560"/>
+          <a:ext cx="1493520" cy="2934335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2193,27 +2588,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="圖片 8" descr="7883b0d66466604b46e84ac52f484bb.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="圖片 8" descr="7883b0d66466604b46e84ac52f484bb.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10801350"/>
-          <a:ext cx="2057400" cy="2743200"/>
+          <a:off x="0" y="16261080"/>
+          <a:ext cx="1884045" cy="2924810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2237,27 +2626,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="圖片 10" descr="32458c394bfd2799d2f324afac564f1.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="圖片 10" descr="32458c394bfd2799d2f324afac564f1.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="14516101"/>
-          <a:ext cx="1371600" cy="2724149"/>
+          <a:off x="2512060" y="16261080"/>
+          <a:ext cx="1256030" cy="2905760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2269,7 +2652,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>628015</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
@@ -2281,27 +2664,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="圖片 11" descr="32458c394bfd2799d2f324afac564f1 - 複製.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="圖片 11" descr="32458c394bfd2799d2f324afac564f1 - 複製.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:blip r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2733675" y="10810876"/>
-          <a:ext cx="1371600" cy="2743200"/>
+          <a:off x="2512060" y="12435205"/>
+          <a:ext cx="1259205" cy="2924810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2325,27 +2702,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="圖片 12" descr="LuxxMusic.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="圖片 12" descr="LuxxMusic.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10801350"/>
-          <a:ext cx="2057400" cy="2743200"/>
+          <a:off x="0" y="12425680"/>
+          <a:ext cx="1884045" cy="2924810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2400,7 +2771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2433,26 +2804,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2485,23 +2839,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2672,502 +3009,507 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="17.6"/>
+  <cols>
+    <col min="5" max="5" width="10.0714285714286"/>
+    <col min="8" max="8" width="10.0714285714286"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="23.2" spans="1:2">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="18" spans="2:5">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="8:8">
       <c r="H9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8">
       <c r="H10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="B22" s="37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="37" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E37" t="e">
         <f>--修改图标</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-    </row>
-    <row r="52" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+    </row>
+    <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="B53" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-    </row>
-    <row r="54" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+    </row>
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="17">
-      <c r="A69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" ht="17">
-      <c r="A70" s="2"/>
-      <c r="B70" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="B71" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-    </row>
-    <row r="72" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" ht="20.4" spans="1:4">
+      <c r="A69" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="52"/>
+    </row>
+    <row r="70" ht="20.4" spans="1:4">
+      <c r="A70" s="50"/>
+      <c r="B70" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="51"/>
+      <c r="D70" s="52"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="17.6"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
-      <c r="A1" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-    </row>
-    <row r="2" spans="1:13" ht="26">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="26">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" ht="18">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18">
-      <c r="A7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="18">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="17" t="s">
+    <row r="1" ht="24.8" spans="1:13">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" ht="26">
-      <c r="A9" s="8"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="16" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" ht="24.8" spans="1:13">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="6" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="25" t="s">
+    </row>
+    <row r="3" ht="24.8" spans="1:13">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="M3" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" ht="18">
-      <c r="A10" s="12"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18">
-      <c r="A11" s="8"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" ht="18">
-      <c r="A12" s="8"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" ht="18">
-      <c r="A13" s="8"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="32" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" ht="24.8" spans="1:13">
+      <c r="A9" s="12"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="34"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" ht="18">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="12"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="12"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="12"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="32"/>
+      <c r="M13" s="46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3175,202 +3517,206 @@
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="G10:G12"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="24">
-      <c r="A1" s="45" t="s">
+    <row r="1" ht="26" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="20.4" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="42"/>
-    </row>
-    <row r="2" spans="1:3" ht="17">
-      <c r="A2" s="44" t="s">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="18" ht="20.4" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="34" ht="20.4" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="6">
+        <v>5</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="52" ht="26" spans="1:3">
+      <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="40"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="43">
-        <v>3</v>
-      </c>
-      <c r="B3" s="48" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" ht="20.4" spans="1:3">
+      <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="40"/>
-    </row>
-    <row r="18" spans="1:3" ht="17">
-      <c r="A18" s="44" t="s">
+      <c r="B53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="40"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="43">
-        <v>3</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="40"/>
-    </row>
-    <row r="34" spans="1:3" ht="17">
-      <c r="A34" s="44" t="s">
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" ht="20.4" spans="1:3">
+      <c r="A69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="40"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="43">
-        <v>5</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="40"/>
-    </row>
-    <row r="52" spans="1:3" ht="24">
-      <c r="A52" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
-    </row>
-    <row r="53" spans="1:3" ht="17">
-      <c r="A53" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="40"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="40"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="37"/>
-      <c r="B64" s="37"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="37"/>
-      <c r="B68" s="37"/>
-    </row>
-    <row r="69" spans="1:3" ht="17">
-      <c r="A69" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" s="40"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C70" s="40"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37"/>
+      <c r="A70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="17.6"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>